--- a/public/DataGuru/admin.xlsx
+++ b/public/DataGuru/admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F741B6D-C076-4A46-A218-F9CBF7D91560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED30E32-39D8-42E6-8998-2F96C2804F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F4920D54-E94C-4E2C-B28D-BF6405E15762}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="190">
   <si>
     <t>Adi Sumantri</t>
   </si>
@@ -586,6 +586,15 @@
   </si>
   <si>
     <t>201707123456789123</t>
+  </si>
+  <si>
+    <t>RAY</t>
+  </si>
+  <si>
+    <t>rayhan@gmail.com</t>
+  </si>
+  <si>
+    <t>rehan123</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -653,13 +662,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -671,6 +691,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -989,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43931AFC-F851-4D0B-A15D-D9112B681A14}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2049,6 +2075,23 @@
       </c>
       <c r="E62" s="6" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2115,6 +2158,7 @@
     <hyperlink ref="D3" r:id="rId60" xr:uid="{FBAA588D-17A4-4ADC-B29E-34DEBC80F0A8}"/>
     <hyperlink ref="D2" r:id="rId61" xr:uid="{7C6AC11D-CAF7-4ED4-80AB-B7613D3B630C}"/>
     <hyperlink ref="D1" r:id="rId62" xr:uid="{27903C8A-A6F7-470B-A7C7-C7922C2F313E}"/>
+    <hyperlink ref="D63" r:id="rId63" xr:uid="{70290049-6A83-4371-89DB-9E26CC736F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
